--- a/DATA_goal/Junction_Flooding_182.xlsx
+++ b/DATA_goal/Junction_Flooding_182.xlsx
@@ -655,103 +655,103 @@
         <v>41614.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.25</v>
+        <v>0.53</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.52</v>
+        <v>1.35</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.18</v>
+        <v>1.12</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.92</v>
+        <v>0.59</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.55</v>
+        <v>0.45</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>74.76000000000001</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>7.24</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.56</v>
+        <v>0.66</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.26</v>
+        <v>0.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41614.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.11</v>
+        <v>2.71</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.24</v>
+        <v>2.22</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>35.29</v>
+        <v>3.53</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.39</v>
+        <v>1.54</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>144.72</v>
+        <v>14.47</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.89</v>
+        <v>2.79</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.32</v>
+        <v>1.83</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.91</v>
+        <v>1.79</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.85</v>
+        <v>0.79</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.01</v>
+        <v>3.2</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41614.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.34</v>
+        <v>2.13</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>47</v>
+        <v>4.7</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>38.69</v>
+        <v>3.87</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>64.55</v>
+        <v>6.45</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>26.39</v>
+        <v>2.64</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.11</v>
+        <v>1.81</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.93</v>
+        <v>1.89</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.14</v>
+        <v>2.01</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.85</v>
+        <v>1.69</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.27</v>
+        <v>2.43</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>252.36</v>
+        <v>25.24</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>47.7</v>
+        <v>4.77</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>31.92</v>
+        <v>3.19</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.36</v>
+        <v>1.74</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.92</v>
+        <v>3.19</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.72</v>
+        <v>1.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.02</v>
+        <v>1.5</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>20.27</v>
+        <v>2.03</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>58.67</v>
+        <v>5.87</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.46</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
@@ -967,16 +967,16 @@
         <v>41614.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
@@ -1024,46 +1024,46 @@
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.12</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41614.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12.04</v>
+        <v>1.2</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>34.69</v>
+        <v>3.47</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>28.62</v>
+        <v>2.86</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>13.15</v>
+        <v>1.31</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>44.59</v>
+        <v>4.46</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>19.56</v>
+        <v>1.96</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>185.45</v>
+        <v>18.54</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>35.14</v>
+        <v>3.51</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>23.56</v>
+        <v>2.36</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>22.21</v>
+        <v>2.22</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>40.2</v>
+        <v>4.02</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41614.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>23.59</v>
+        <v>2.36</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>17.83</v>
+        <v>1.78</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>51.48</v>
+        <v>5.15</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>42.55</v>
+        <v>4.26</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>19.11</v>
+        <v>1.91</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>71.18000000000001</v>
+        <v>7.12</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>28.87</v>
+        <v>2.89</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>19.58</v>
+        <v>1.96</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>20.59</v>
+        <v>2.06</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>21.96</v>
+        <v>2.2</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>18.5</v>
+        <v>1.85</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>26.63</v>
+        <v>2.66</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>276.82</v>
+        <v>27.68</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>52.13</v>
+        <v>5.21</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>35.12</v>
+        <v>3.51</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>18.75</v>
+        <v>1.87</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>35.09</v>
+        <v>3.51</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>13.59</v>
+        <v>1.36</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>21.99</v>
+        <v>2.2</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>64.81</v>
+        <v>6.48</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>21.4</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41614.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>34.39</v>
+        <v>3.44</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>28.44</v>
+        <v>2.84</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>50.93</v>
+        <v>5.09</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>19.33</v>
+        <v>1.93</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>13.15</v>
+        <v>1.32</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>12.35</v>
+        <v>1.24</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>10.35</v>
+        <v>1.04</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>182.88</v>
+        <v>18.29</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>34.97</v>
+        <v>3.5</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>23.52</v>
+        <v>2.35</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>24.52</v>
+        <v>2.45</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9.15</v>
+        <v>0.92</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>10.77</v>
+        <v>1.08</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>46.43</v>
+        <v>4.64</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41614.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>3.85</v>
+        <v>0.39</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>32.96</v>
+        <v>3.3</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>5.15</v>
+        <v>0.52</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>2.45</v>
+        <v>0.24</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>2.96</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41614.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>19.23</v>
+        <v>1.92</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>14.52</v>
+        <v>1.45</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>41.98</v>
+        <v>4.2</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>34.72</v>
+        <v>3.47</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>55.14</v>
+        <v>5.51</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>23.53</v>
+        <v>2.35</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>16.8</v>
+        <v>1.68</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>17.93</v>
+        <v>1.79</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>21.68</v>
+        <v>2.17</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>223.98</v>
+        <v>22.4</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>42.35</v>
+        <v>4.24</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>28.56</v>
+        <v>2.86</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>15.23</v>
+        <v>1.52</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>27.39</v>
+        <v>2.74</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.05</v>
+        <v>1.1</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>17.89</v>
+        <v>1.79</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>49.84</v>
+        <v>4.98</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>17.45</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_182.xlsx
+++ b/DATA_goal/Junction_Flooding_182.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,11 +447,11 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -462,9 +462,9 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41614.34027777778</v>
+        <v>44863.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.58</v>
+        <v>0.44</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1.39</v>
-      </c>
       <c r="I2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.11</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.16</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.29</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.13</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.09</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.48</v>
+        <v>3.15</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.47</v>
+        <v>0.68</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.89</v>
+        <v>0.37</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.19</v>
       </c>
       <c r="AA2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>1.17</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.09</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41614.34722222222</v>
+        <v>44863.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.21</v>
+        <v>2.06</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.95</v>
+        <v>1.49</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.71</v>
+        <v>4.3</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.22</v>
+        <v>3.66</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.97</v>
+        <v>1.58</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.53</v>
+        <v>5.43</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.54</v>
+        <v>2.39</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.07</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.09</v>
+        <v>1.59</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.76</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.18</v>
+        <v>1.91</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.97</v>
+        <v>1.51</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.4</v>
+        <v>2.33</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.83</v>
+        <v>1.24</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.47</v>
+        <v>23.26</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.79</v>
+        <v>4.39</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.91</v>
+        <v>1.48</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.83</v>
+        <v>2.95</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AF3" s="4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>1.12</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41614.35416666666</v>
+        <v>44863.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.13</v>
+        <v>1.42</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.63</v>
+        <v>1.03</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.7</v>
+        <v>2.98</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.87</v>
+        <v>2.53</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.69</v>
+        <v>1.09</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.45</v>
+        <v>4.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.64</v>
+        <v>1.66</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.1</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.89</v>
+        <v>1.22</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.01</v>
+        <v>1.31</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.43</v>
+        <v>1.61</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.42</v>
+        <v>0.86</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>25.24</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>5.87</v>
+        <v>4.02</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.95</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41614.36111111111</v>
+        <v>44863.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>0.03</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="W5" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X5" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="Y5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD5" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>0.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41614.36805555555</v>
+        <v>44863.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.59</v>
+        <v>17.92</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.2</v>
+        <v>13.23</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.47</v>
+        <v>38.38</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.86</v>
+        <v>32.1</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.31</v>
+        <v>13.98</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.46</v>
+        <v>49.34</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.96</v>
+        <v>21.36</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.89</v>
+        <v>9.59</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.34</v>
+        <v>14.23</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.38</v>
+        <v>15.52</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.48</v>
+        <v>16.57</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.4</v>
+        <v>4.45</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.25</v>
+        <v>13.58</v>
       </c>
       <c r="P6" s="4" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>204.24</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.17</v>
-      </c>
       <c r="Z6" s="4" t="n">
-        <v>2.22</v>
+        <v>24.37</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.03</v>
+        <v>11.32</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.93</v>
+        <v>10.06</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.1</v>
+        <v>12.13</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.5</v>
+        <v>16.31</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.02</v>
+        <v>44.38</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.68</v>
+        <v>7.2</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41614.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41614.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41614.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41614.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41614.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>39.58</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>17.57</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>67.19</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>26.78</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>18.11</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>24.73</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>256.03</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="V11" s="4" t="n">
         <v>15.91</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>32.65</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>17.32</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>61.12</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>19.89</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_182.xlsx
+++ b/DATA_goal/Junction_Flooding_182.xlsx
@@ -447,11 +447,11 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -462,9 +462,9 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>44863.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.89</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44863.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.06</v>
+        <v>20.59</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.3</v>
+        <v>43.03</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.66</v>
+        <v>36.61</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.43</v>
+        <v>54.33</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.39</v>
+        <v>23.89</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.72</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.9</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.76</v>
+        <v>17.6</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.91</v>
+        <v>19.08</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.42</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>23.26</v>
+        <v>232.6</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.39</v>
+        <v>43.93</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.95</v>
+        <v>29.46</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.74</v>
+        <v>27.35</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.72</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.49</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.46</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.92</v>
+        <v>49.25</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.83</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44863.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.18</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.27</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.98</v>
+        <v>29.78</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.53</v>
+        <v>25.28</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.94</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.4</v>
+        <v>44.02</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.55</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.45</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.98</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.16</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.14</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.84</v>
+        <v>158.39</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.05</v>
+        <v>30.5</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.22</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.05</v>
+        <v>20.46</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.1</v>
+        <v>21.05</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.91</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.02</v>
+        <v>40.17</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44863.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_182.xlsx
+++ b/DATA_goal/Junction_Flooding_182.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,13 +655,13 @@
         <v>44863.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.41</v>
+        <v>4.411</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.83</v>
+        <v>1.834</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.69</v>
+        <v>1.687</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>4.96</v>
@@ -670,88 +670,88 @@
         <v>6.46</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.42</v>
+        <v>2.421</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.34</v>
+        <v>5.343</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.59</v>
+        <v>2.587</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.088</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.62</v>
+        <v>1.625</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.867</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.39</v>
+        <v>4.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.262</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>5.05</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9</v>
+        <v>0.896</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.601</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.104</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>31.51</v>
+        <v>31.507</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.77</v>
+        <v>6.768</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.78</v>
+        <v>2.777</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.65</v>
+        <v>3.652</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.95</v>
+        <v>3.949</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.176</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.546</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.92</v>
+        <v>1.916</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.09</v>
+        <v>5.093</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.91</v>
+        <v>2.911</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.89</v>
+        <v>3.891</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.08</v>
+        <v>4.078</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.07</v>
+        <v>2.065</v>
       </c>
     </row>
     <row r="3">
@@ -759,25 +759,25 @@
         <v>44863.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.59</v>
+        <v>20.585</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>14.86</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.162</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>43.03</v>
+        <v>43.035</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.61</v>
+        <v>36.608</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.83</v>
+        <v>15.827</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>54.33</v>
+        <v>54.325</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>23.89</v>
@@ -786,76 +786,76 @@
         <v>10.72</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.9</v>
+        <v>15.895</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.6</v>
+        <v>17.603</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.08</v>
+        <v>19.083</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.99</v>
+        <v>4.986</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.06</v>
+        <v>15.065</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.27</v>
+        <v>23.271</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.42</v>
+        <v>12.425</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.574</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.594</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>232.6</v>
+        <v>232.599</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>43.93</v>
+        <v>43.932</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.79</v>
+        <v>14.788</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>29.46</v>
+        <v>29.457</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.29</v>
+        <v>16.286</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.99</v>
+        <v>1.987</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.35</v>
+        <v>27.352</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.72</v>
+        <v>12.724</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.49</v>
+        <v>11.485</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.46</v>
+        <v>14.463</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.5</v>
+        <v>18.502</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.318</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>49.25</v>
+        <v>49.248</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.047000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.83</v>
+        <v>17.829</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44863.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.18</v>
+        <v>14.185</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.27</v>
+        <v>10.265</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.75</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>29.78</v>
+        <v>29.785</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.28</v>
+        <v>25.277</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.94</v>
+        <v>10.942</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>44.02</v>
+        <v>44.017</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.55</v>
+        <v>16.552</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.45</v>
+        <v>7.451</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.98</v>
+        <v>10.984</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.16</v>
+        <v>12.158</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.14</v>
+        <v>13.136</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.46</v>
+        <v>3.462</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.39</v>
+        <v>10.391</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.08</v>
+        <v>16.076</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.59</v>
+        <v>8.592000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.408</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>158.39</v>
+        <v>158.385</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>30.5</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.22</v>
+        <v>10.223</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.46</v>
+        <v>20.464</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.21</v>
+        <v>11.211</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>1.38</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.05</v>
+        <v>21.045</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.82</v>
+        <v>8.821</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.96</v>
+        <v>7.957</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.91</v>
+        <v>9.914</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.78</v>
+        <v>12.781</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>40.17</v>
+        <v>40.174</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.55</v>
+        <v>5.553</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.34</v>
+        <v>12.335</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>0.71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44863.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.38</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>49.34</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.36</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.14</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.24</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>24.37</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>44.38</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_182.xlsx
+++ b/DATA_goal/Junction_Flooding_182.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44863.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.144</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.569</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.231</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.89</v>
+        <v>1.893</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.12</v>
+        <v>10.121</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.614</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.523</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.837</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.08</v>
+        <v>1.079</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.258</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.66</v>
+        <v>1.656</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.294</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.1</v>
+        <v>4.099</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.63</v>
+        <v>2.626</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.822</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>1.87</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.19</v>
+        <v>1.186</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.2</v>
+        <v>4.197</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.574</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>1.17</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.879</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.77</v>
+        <v>9.773</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.705</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44863.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>38.38</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>49.34</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>204.24</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_182.xlsx
+++ b/DATA_goal/Junction_Flooding_182.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44863.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.144</v>
+        <v>1.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.569</v>
+        <v>0.57</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.231</v>
+        <v>0.23</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.893</v>
+        <v>1.89</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.121</v>
+        <v>10.12</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.614</v>
+        <v>0.61</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.523</v>
+        <v>0.52</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.837</v>
+        <v>0.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.079</v>
+        <v>1.08</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.258</v>
+        <v>0.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.656</v>
+        <v>1.66</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.294</v>
+        <v>0.29</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.249</v>
+        <v>0.25</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.099</v>
+        <v>4.1</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.626</v>
+        <v>2.63</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.822</v>
+        <v>0.82</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>1.87</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.186</v>
+        <v>1.19</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.197</v>
+        <v>4.2</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.574</v>
+        <v>0.57</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>1.17</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.879</v>
+        <v>0.88</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.773</v>
+        <v>9.77</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.705</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44863.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.38</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>49.34</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.36</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.14</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.24</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>24.37</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>44.38</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.91</v>
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
